--- a/Songhay.Social.Shell.Tests/TweetBooks/TweetBook-2019-11.xlsx
+++ b/Songhay.Social.Shell.Tests/TweetBooks/TweetBook-2019-11.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\~shares\sourceRoot\Songhay.Social\Songhay.Social.Shell.Tests\TweetBooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7CC75F4-C9F5-4DD4-8287-885FBADAA32C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EFF76BA-601B-4991-AA80-81C291EF5CF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29130" yWindow="330" windowWidth="28305" windowHeight="14910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29130" yWindow="330" windowWidth="28305" windowHeight="14910" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BryanWilhite" sheetId="1" r:id="rId1"/>
@@ -2419,9 +2419,6 @@
     <t>https://www.wired.com/story/los-angeles-blade-runner-theory-relativity</t>
   </si>
   <si>
-    <t>http://lxer.com/module/newswire/ext_link.php?rid=277147</t>
-  </si>
-  <si>
     <t>https://shannonselin.com/2019/04/napoleon-looted-art/</t>
   </si>
   <si>
@@ -2441,6 +2438,9 @@
   </si>
   <si>
     <t>https://www.wired.com/story/internet-archive-wikipedia-more-reliable</t>
+  </si>
+  <si>
+    <t>https://opensource.com/article/19/11/how-sort-awk</t>
   </si>
 </sst>
 </file>
@@ -2846,8 +2846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C499"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A289" workbookViewId="0">
-      <selection activeCell="A307" sqref="A307"/>
+    <sheetView topLeftCell="A289" workbookViewId="0">
+      <selection activeCell="A303" sqref="A303"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4663,32 +4663,32 @@
       <c r="B301" s="1"/>
     </row>
     <row r="302" spans="1:2">
-      <c r="A302" t="s">
-        <v>796</v>
+      <c r="A302" s="1" t="s">
+        <v>803</v>
       </c>
       <c r="B302" s="1"/>
     </row>
     <row r="303" spans="1:2">
       <c r="A303" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B303" s="1"/>
     </row>
     <row r="304" spans="1:2">
       <c r="A304" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B304" s="1"/>
     </row>
     <row r="305" spans="1:2">
       <c r="A305" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B305" s="1"/>
     </row>
     <row r="306" spans="1:2">
       <c r="A306" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B306" s="1"/>
     </row>
@@ -5485,6 +5485,7 @@
     <hyperlink ref="A260" r:id="rId212" xr:uid="{3CC7F812-F602-4C05-A5E6-C941D6C8AE7A}"/>
     <hyperlink ref="A287" r:id="rId213" xr:uid="{20119806-2DCC-4DCD-9A30-120FDA5B3828}"/>
     <hyperlink ref="A289" r:id="rId214" xr:uid="{2557DB0B-BC78-4CB8-A663-CBC28CCFE0FA}"/>
+    <hyperlink ref="A302" r:id="rId215" xr:uid="{43BBBC0A-F3DB-4637-B530-B38A8294F4F1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5494,8 +5495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C500"/>
   <sheetViews>
-    <sheetView topLeftCell="A479" workbookViewId="0">
-      <selection activeCell="A501" sqref="A501"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="A104" sqref="A104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8479,19 +8480,19 @@
     </row>
     <row r="498" spans="1:2">
       <c r="A498" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B498" s="1"/>
     </row>
     <row r="499" spans="1:2">
       <c r="A499" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B499" s="1"/>
     </row>
     <row r="500" spans="1:2">
       <c r="A500" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B500" s="1"/>
     </row>
